--- a/Tablache.xlsx
+++ b/Tablache.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>Laguna amarga LT</t>
   </si>
@@ -395,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -654,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1004,4 +1005,123 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.40234807692307695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0.32165192307692309</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.4069999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.7199999999999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="E4">
+        <v>3.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>